--- a/data/trans_orig/ED_ADU-Dificultad-trans_orig.xlsx
+++ b/data/trans_orig/ED_ADU-Dificultad-trans_orig.xlsx
@@ -669,7 +669,7 @@
         <v>45.7273449623908</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>46.70654214977038</v>
+        <v>46.70654214977037</v>
       </c>
       <c r="G4" s="5" t="n">
         <v>50.30014817941526</v>
@@ -704,40 +704,40 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>45.82579526271422</v>
+        <v>45.80873099296635</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>42.97884702406408</v>
+        <v>43.08203194002461</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>44.71335492174308</v>
+        <v>44.81550254912111</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>44.68967589951601</v>
+        <v>44.82040651351348</v>
       </c>
       <c r="G5" s="5" t="n">
-        <v>49.03199896496869</v>
+        <v>48.96588566276439</v>
       </c>
       <c r="H5" s="5" t="n">
-        <v>45.64612557622045</v>
+        <v>45.57680190785034</v>
       </c>
       <c r="I5" s="5" t="n">
-        <v>48.08475742192601</v>
+        <v>48.05388991537686</v>
       </c>
       <c r="J5" s="5" t="n">
-        <v>48.77162213577281</v>
+        <v>48.91093665075736</v>
       </c>
       <c r="K5" s="5" t="n">
-        <v>48.2142207469097</v>
+        <v>48.18842559105355</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>44.67745429234645</v>
+        <v>44.66376231745345</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>46.71836333983384</v>
+        <v>46.80798270863505</v>
       </c>
       <c r="N5" s="5" t="n">
-        <v>47.52938740540317</v>
+        <v>47.58875257322206</v>
       </c>
     </row>
     <row r="6">
@@ -748,40 +748,40 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>48.84399638888644</v>
+        <v>48.89224312029661</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>45.11971678103958</v>
+        <v>45.13305265228807</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>46.74707687145094</v>
+        <v>46.69229199673174</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>48.26937317082191</v>
+        <v>48.33014311756553</v>
       </c>
       <c r="G6" s="5" t="n">
-        <v>51.51592461731313</v>
+        <v>51.57165457022533</v>
       </c>
       <c r="H6" s="5" t="n">
-        <v>47.83800333038899</v>
+        <v>47.83075667587564</v>
       </c>
       <c r="I6" s="5" t="n">
-        <v>50.13374194711452</v>
+        <v>50.17200018195384</v>
       </c>
       <c r="J6" s="5" t="n">
-        <v>51.87192066193514</v>
+        <v>51.88380911572809</v>
       </c>
       <c r="K6" s="5" t="n">
-        <v>50.18558540270405</v>
+        <v>50.15060400044121</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>46.13110947930581</v>
+        <v>46.16882142831894</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>48.19348923312346</v>
+        <v>48.27230746564206</v>
       </c>
       <c r="N6" s="5" t="n">
-        <v>49.86489871882638</v>
+        <v>50.00091190750655</v>
       </c>
     </row>
     <row r="7">
@@ -817,7 +817,7 @@
         <v>47.96407606530158</v>
       </c>
       <c r="J7" s="5" t="n">
-        <v>51.51923332187582</v>
+        <v>51.51923332187581</v>
       </c>
       <c r="K7" s="5" t="n">
         <v>44.54905745520132</v>
@@ -840,40 +840,40 @@
         </is>
       </c>
       <c r="C8" s="5" t="n">
-        <v>42.17749476434807</v>
+        <v>42.21822303996174</v>
       </c>
       <c r="D8" s="5" t="n">
-        <v>43.5327923867903</v>
+        <v>43.62028835860039</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>44.61749633622152</v>
+        <v>44.60295128651525</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>46.74200847676249</v>
+        <v>46.4943337118229</v>
       </c>
       <c r="G8" s="5" t="n">
-        <v>44.73675968419235</v>
+        <v>44.82783203590289</v>
       </c>
       <c r="H8" s="5" t="n">
-        <v>46.14836178244241</v>
+        <v>46.16048051929702</v>
       </c>
       <c r="I8" s="5" t="n">
-        <v>46.64024951691665</v>
+        <v>46.7129105784018</v>
       </c>
       <c r="J8" s="5" t="n">
-        <v>50.35444491203668</v>
+        <v>50.41020429287599</v>
       </c>
       <c r="K8" s="5" t="n">
-        <v>43.73714027520606</v>
+        <v>43.80844090199454</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>45.22618921040211</v>
+        <v>45.21627749496669</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>45.97126364047109</v>
+        <v>46.08752056088642</v>
       </c>
       <c r="N8" s="5" t="n">
-        <v>48.95742270616798</v>
+        <v>48.92861340852999</v>
       </c>
     </row>
     <row r="9">
@@ -884,40 +884,40 @@
         </is>
       </c>
       <c r="C9" s="5" t="n">
-        <v>44.37646280196518</v>
+        <v>44.36302052216482</v>
       </c>
       <c r="D9" s="5" t="n">
-        <v>45.94000747947452</v>
+        <v>46.00398240260753</v>
       </c>
       <c r="E9" s="5" t="n">
-        <v>46.87848837748376</v>
+        <v>46.84816424149295</v>
       </c>
       <c r="F9" s="5" t="n">
-        <v>49.38977525166729</v>
+        <v>49.42632982202705</v>
       </c>
       <c r="G9" s="5" t="n">
-        <v>46.93790807862603</v>
+        <v>46.93571375676514</v>
       </c>
       <c r="H9" s="5" t="n">
-        <v>48.52782765554097</v>
+        <v>48.31143700129476</v>
       </c>
       <c r="I9" s="5" t="n">
-        <v>49.21530304000171</v>
+        <v>49.15584250921049</v>
       </c>
       <c r="J9" s="5" t="n">
-        <v>52.57985515754845</v>
+        <v>52.74047474293992</v>
       </c>
       <c r="K9" s="5" t="n">
-        <v>45.28852261095788</v>
+        <v>45.31598097672706</v>
       </c>
       <c r="L9" s="5" t="n">
-        <v>46.83834462880596</v>
+        <v>46.85521122049813</v>
       </c>
       <c r="M9" s="5" t="n">
-        <v>47.64854515252806</v>
+        <v>47.76999251535064</v>
       </c>
       <c r="N9" s="5" t="n">
-        <v>50.80403440240567</v>
+        <v>50.81683264290733</v>
       </c>
     </row>
     <row r="10">
@@ -953,7 +953,7 @@
         <v>48.39380475115546</v>
       </c>
       <c r="J10" s="5" t="n">
-        <v>49.36091890869328</v>
+        <v>49.36091890869329</v>
       </c>
       <c r="K10" s="5" t="n">
         <v>42.5506047075835</v>
@@ -965,7 +965,7 @@
         <v>47.39643666022086</v>
       </c>
       <c r="N10" s="5" t="n">
-        <v>49.34730639978381</v>
+        <v>49.34730639978382</v>
       </c>
     </row>
     <row r="11">
@@ -976,40 +976,40 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>41.06012375999469</v>
+        <v>41.08408601778041</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>44.76029010496333</v>
+        <v>44.64099446901654</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>45.22094371489363</v>
+        <v>45.15561433311534</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>48.10743333947079</v>
+        <v>48.10718575244708</v>
       </c>
       <c r="G11" s="5" t="n">
-        <v>41.95398766867973</v>
+        <v>42.00837079016651</v>
       </c>
       <c r="H11" s="5" t="n">
-        <v>46.33438462569578</v>
+        <v>46.16717228150027</v>
       </c>
       <c r="I11" s="5" t="n">
-        <v>47.03662258420283</v>
+        <v>46.92380624576342</v>
       </c>
       <c r="J11" s="5" t="n">
-        <v>48.1615759806053</v>
+        <v>48.17094017214376</v>
       </c>
       <c r="K11" s="5" t="n">
-        <v>41.7952022491374</v>
+        <v>41.82331643079085</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>45.83746658956578</v>
+        <v>45.77566311389889</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>46.40559000683326</v>
+        <v>46.39086600500104</v>
       </c>
       <c r="N11" s="5" t="n">
-        <v>48.49342787980301</v>
+        <v>48.51584311705645</v>
       </c>
     </row>
     <row r="12">
@@ -1020,40 +1020,40 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>43.06784580990272</v>
+        <v>43.01273252985919</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>47.25629333559763</v>
+        <v>47.1715342388791</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>47.75299529800297</v>
+        <v>47.74504768047747</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>50.58295137761995</v>
+        <v>50.65854412075466</v>
       </c>
       <c r="G12" s="5" t="n">
-        <v>44.30107949261459</v>
+        <v>44.21886274165979</v>
       </c>
       <c r="H12" s="5" t="n">
-        <v>48.79086109235888</v>
+        <v>48.73579632396102</v>
       </c>
       <c r="I12" s="5" t="n">
-        <v>49.92482330271354</v>
+        <v>49.91571732000721</v>
       </c>
       <c r="J12" s="5" t="n">
-        <v>50.44123870792087</v>
+        <v>50.41713849457152</v>
       </c>
       <c r="K12" s="5" t="n">
-        <v>43.29717277420718</v>
+        <v>43.33876200421071</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>47.59074050129313</v>
+        <v>47.71314434059589</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>48.34814248528507</v>
+        <v>48.43259146458905</v>
       </c>
       <c r="N12" s="5" t="n">
-        <v>50.22591391390809</v>
+        <v>50.21995938065965</v>
       </c>
     </row>
     <row r="13">
@@ -1112,40 +1112,40 @@
         </is>
       </c>
       <c r="C14" s="5" t="n">
-        <v>39.53896986893267</v>
+        <v>39.65716640353131</v>
       </c>
       <c r="D14" s="5" t="n">
-        <v>42.20574968553503</v>
+        <v>42.27429428835789</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>44.37858911661785</v>
+        <v>44.48164818029824</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>47.81649337814648</v>
+        <v>47.92064710706793</v>
       </c>
       <c r="G14" s="5" t="n">
-        <v>38.91283559242142</v>
+        <v>39.16362783169847</v>
       </c>
       <c r="H14" s="5" t="n">
-        <v>44.68534052778963</v>
+        <v>44.75144828187521</v>
       </c>
       <c r="I14" s="5" t="n">
-        <v>44.84299530443998</v>
+        <v>44.94450120218136</v>
       </c>
       <c r="J14" s="5" t="n">
-        <v>48.22230134775422</v>
+        <v>48.20159177623606</v>
       </c>
       <c r="K14" s="5" t="n">
-        <v>39.95237413473587</v>
+        <v>39.84701503813753</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>43.86657127889571</v>
+        <v>43.69975469408828</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>45.04888827779583</v>
+        <v>45.11671738925034</v>
       </c>
       <c r="N14" s="5" t="n">
-        <v>48.38721180348832</v>
+        <v>48.3986507202675</v>
       </c>
     </row>
     <row r="15">
@@ -1156,40 +1156,40 @@
         </is>
       </c>
       <c r="C15" s="5" t="n">
-        <v>42.74053845394033</v>
+        <v>42.7590302491258</v>
       </c>
       <c r="D15" s="5" t="n">
-        <v>45.54614166981287</v>
+        <v>45.74750809016494</v>
       </c>
       <c r="E15" s="5" t="n">
-        <v>47.6580635045664</v>
+        <v>47.80090405579475</v>
       </c>
       <c r="F15" s="5" t="n">
-        <v>50.55684518868565</v>
+        <v>50.65640845731917</v>
       </c>
       <c r="G15" s="5" t="n">
-        <v>42.4680798853121</v>
+        <v>42.62047967350049</v>
       </c>
       <c r="H15" s="5" t="n">
-        <v>48.12019382346534</v>
+        <v>48.21375144725396</v>
       </c>
       <c r="I15" s="5" t="n">
-        <v>48.49589105996569</v>
+        <v>48.46934631947144</v>
       </c>
       <c r="J15" s="5" t="n">
-        <v>50.66169540949294</v>
+        <v>50.67904392352823</v>
       </c>
       <c r="K15" s="5" t="n">
-        <v>42.20560853678101</v>
+        <v>42.20535543390265</v>
       </c>
       <c r="L15" s="5" t="n">
-        <v>46.23766670806192</v>
+        <v>46.18909802508021</v>
       </c>
       <c r="M15" s="5" t="n">
-        <v>47.48528093533675</v>
+        <v>47.56385793392245</v>
       </c>
       <c r="N15" s="5" t="n">
-        <v>50.27835104210968</v>
+        <v>50.25747313526902</v>
       </c>
     </row>
     <row r="16">
@@ -1213,7 +1213,7 @@
         <v>45.94948899828305</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>48.59209108415044</v>
+        <v>48.59209108415045</v>
       </c>
       <c r="G16" s="5" t="n">
         <v>45.75280820991311</v>
@@ -1237,7 +1237,7 @@
         <v>47.1323915331609</v>
       </c>
       <c r="N16" s="5" t="n">
-        <v>49.43017602926011</v>
+        <v>49.4301760292601</v>
       </c>
     </row>
     <row r="17">
@@ -1248,40 +1248,40 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>42.65834560998333</v>
+        <v>42.67592765082811</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>44.07439097534787</v>
+        <v>44.05706314676738</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>45.34121345654674</v>
+        <v>45.30964620386295</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>47.86515258241197</v>
+        <v>47.92531938113585</v>
       </c>
       <c r="G17" s="5" t="n">
-        <v>45.11841417006156</v>
+        <v>45.12504589911175</v>
       </c>
       <c r="H17" s="5" t="n">
-        <v>46.40090021963159</v>
+        <v>46.40598964071077</v>
       </c>
       <c r="I17" s="5" t="n">
-        <v>47.60149630908531</v>
+        <v>47.64478036483575</v>
       </c>
       <c r="J17" s="5" t="n">
-        <v>49.60035707038274</v>
+        <v>49.61318475984118</v>
       </c>
       <c r="K17" s="5" t="n">
-        <v>44.05117479899303</v>
+        <v>44.1108334203532</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>45.42846674298278</v>
+        <v>45.47716434255523</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>46.63884358994822</v>
+        <v>46.71608153361347</v>
       </c>
       <c r="N17" s="5" t="n">
-        <v>48.96642283444691</v>
+        <v>48.9272083081671</v>
       </c>
     </row>
     <row r="18">
@@ -1292,40 +1292,40 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>43.84667160677434</v>
+        <v>43.89298430495851</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>45.31494695433674</v>
+        <v>45.33805065280568</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>46.54367284388836</v>
+        <v>46.52917229447684</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>49.33066855403634</v>
+        <v>49.34471224128734</v>
       </c>
       <c r="G18" s="5" t="n">
-        <v>46.36373778351056</v>
+        <v>46.37794168603914</v>
       </c>
       <c r="H18" s="5" t="n">
-        <v>47.68384504522454</v>
+        <v>47.72958824096276</v>
       </c>
       <c r="I18" s="5" t="n">
-        <v>48.8988804908879</v>
+        <v>48.96689267456645</v>
       </c>
       <c r="J18" s="5" t="n">
-        <v>50.82992017394108</v>
+        <v>50.88534162366589</v>
       </c>
       <c r="K18" s="5" t="n">
-        <v>44.95055875406945</v>
+        <v>44.97671984544545</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>46.33431680817563</v>
+        <v>46.3596912420595</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>47.56742906537004</v>
+        <v>47.56727340625969</v>
       </c>
       <c r="N18" s="5" t="n">
-        <v>49.89432077257636</v>
+        <v>49.89021333280455</v>
       </c>
     </row>
     <row r="19">
